--- a/Sep19/all_countries/Tables/income-M_tax.xlsx
+++ b/Sep19/all_countries/Tables/income-M_tax.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>38626089309.82383</v>
+        <v>38613371680.24969</v>
       </c>
       <c r="I2">
-        <v>26762295272.46198</v>
+        <v>26877000983.83684</v>
       </c>
       <c r="J2">
-        <v>43047345802.95764</v>
+        <v>42991534087.72458</v>
       </c>
       <c r="K2">
-        <v>35077153989.88326</v>
+        <v>35106946295.22135</v>
       </c>
       <c r="L2">
-        <v>5189863205.964745</v>
+        <v>5188154444.892286</v>
       </c>
       <c r="M2">
-        <v>3595824843.349851</v>
+        <v>3611236886.391624</v>
       </c>
       <c r="N2">
-        <v>25949316029.82356</v>
+        <v>25940772224.46127</v>
       </c>
       <c r="O2">
-        <v>17979124216.74918</v>
+        <v>18056184431.95805</v>
       </c>
     </row>
     <row r="3" spans="1:15">
